--- a/Server configuration.xlsx
+++ b/Server configuration.xlsx
@@ -1,40 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\remote connect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DFB99A-DCB0-41BB-9301-4F1F906E564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4305" yWindow="2115" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4305" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>端口6006</t>
+  </si>
+  <si>
+    <t>端口22</t>
+  </si>
+  <si>
+    <t>端口8888</t>
+  </si>
+  <si>
+    <t>磁盘映射</t>
+  </si>
+  <si>
+    <t>image id</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>chen_lseg</t>
+  </si>
+  <si>
+    <t>lseg</t>
+  </si>
+  <si>
+    <t>7554ac65eba5</t>
+  </si>
+  <si>
+    <t>LSEG</t>
+  </si>
+  <si>
+    <t>docker run -dit --gpus all --name chen_lseg -p 6600:6006 -p 8200:22 -p 8800:8888 -v ~/ws4/lseg:/workspace 7554ac65eba5</t>
+  </si>
+  <si>
+    <t>chen_control</t>
+  </si>
+  <si>
+    <t>control_net</t>
+  </si>
+  <si>
+    <t>Controlnet</t>
+  </si>
+  <si>
+    <t>chen_test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>chen_pedit</t>
+  </si>
+  <si>
+    <t>730572d0c0dd</t>
+  </si>
+  <si>
+    <t>prompt-prompt</t>
+  </si>
+  <si>
+    <t>chen_</t>
+  </si>
+  <si>
+    <t>prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -dit --gpus all --name chen_pedit -p 6603:6006 -p 8203:22 -p 9003:8888 -v ~/ws4/prompt:/workspace 730572d0c0dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7b7e885133db062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it    f7b7e885133db062  /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +149,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,1346 +429,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.5" customWidth="1" min="1" max="1"/>
-    <col width="9.75" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9.75" customWidth="1" min="4" max="4"/>
-    <col width="11.25" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="22.125" customWidth="1" min="7" max="7"/>
-    <col width="45.25" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>名字</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>端口6006</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>端口22</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>端口8888</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>磁盘映射</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>image id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>用途</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chen_lseg</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>6600</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8200</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>9000</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>lseg</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7554ac65eba5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>docker run -dit --gpus all --name chen_lseg -p 6600:6006 -p 8200:22 -p 8800:8888 -v ~/ws4/lseg:/workspace 7554ac65eba5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>chen_control</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>6601</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8201</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9001</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>control_net</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Controlnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>chen_test</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>6602</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8202</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9002</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>chen_pedit</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
         <v>6603</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8203</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9003</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>730572d0c0dd</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>prompt-prompt</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>docker run -dit --gpus all --name chen_pedit -p 6603:6006 -p 8203:22 -p 9003:8888 -v ~/ws4/None:/workspace 730572d0c0dd</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>6604</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8204</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9004</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
         <v>6605</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8205</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9005</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>6606</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8206</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>9006</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
         <v>6607</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8207</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9007</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
         <v>6608</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8208</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9008</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>6609</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>8209</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9009</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
         <v>6610</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>8210</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>9010</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>6611</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>8211</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9011</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
         <v>6612</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>8212</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9012</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>6613</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>8213</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9013</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>6614</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>8214</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>9014</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>6615</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8215</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>9015</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>6616</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>8216</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9016</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>6617</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8217</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>9017</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>6618</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>8218</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>9018</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>6619</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>8219</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>9019</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>6620</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8220</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>9020</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>6621</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>8221</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9021</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>6622</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>8222</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>9022</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
         <v>6623</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>8223</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>9023</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
         <v>6624</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8224</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9024</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
         <v>6625</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>8225</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9025</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
         <v>6626</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>8226</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>9026</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
         <v>6627</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>8227</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>9027</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>chen_</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
         <v>6628</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>8228</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>9028</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>6629</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>8229</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>9029</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>6630</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8230</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>9030</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" t="n">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>6631</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8231</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>9031</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="n">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>6632</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8232</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>9032</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" t="n">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>6633</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8233</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>9033</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="n">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>6634</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>8234</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9034</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" t="n">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>6635</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>8235</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9035</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" t="n">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>6636</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>8236</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>9036</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" t="n">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>6637</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8237</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9037</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="n">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>6638</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>8238</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>9038</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="n">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>6639</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8239</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>9039</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="n">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>6640</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8240</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>9040</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" t="n">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>6641</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>8241</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>9041</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" t="n">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>6642</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>8242</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>9042</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" t="n">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>6643</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>8243</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>9043</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="n">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>6644</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>8244</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>9044</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="n">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47">
         <v>6645</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>8245</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>9045</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" t="n">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>6646</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>8246</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>9046</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" t="n">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>6647</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8247</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>9047</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="n">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
         <v>6648</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>8248</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>9048</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" t="n">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
         <v>6649</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>8249</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>9049</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" t="n">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
         <v>6650</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>8250</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>9050</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" t="n">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>6651</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>8251</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>9051</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="n">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
         <v>6652</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>8252</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>9052</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" t="n">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
         <v>6653</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>8253</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>9053</v>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" t="n">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56">
         <v>6654</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8254</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>9054</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" t="n">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57">
         <v>6655</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8255</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>9055</v>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" t="n">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58">
         <v>6656</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8256</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>9056</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" t="n">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59">
         <v>6657</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>8257</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>9057</v>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" t="n">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60">
         <v>6658</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8258</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>9058</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" t="n">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61">
         <v>6659</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8259</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>9059</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" t="n">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62">
         <v>6660</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8260</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>9060</v>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" t="n">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63">
         <v>6661</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8261</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>9061</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" t="n">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64">
         <v>6662</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8262</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>9062</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" t="n">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65">
         <v>6663</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8263</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>9063</v>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" t="n">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66">
         <v>6664</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8264</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>9064</v>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" t="n">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
         <v>6665</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8265</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>9065</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" t="n">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68">
         <v>6666</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8266</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>9066</v>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" t="n">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69">
         <v>6667</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8267</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>9067</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" t="n">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70">
         <v>6668</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8268</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>9068</v>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" t="n">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
         <v>6669</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8269</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>9069</v>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" t="n">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72">
         <v>6670</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8270</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>9070</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" t="n">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73">
         <v>6671</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8271</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>9071</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" t="n">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74">
         <v>6672</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8272</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>9072</v>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" t="n">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75">
         <v>6673</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>8273</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>9073</v>
       </c>
     </row>
-    <row r="76">
-      <c r="B76" t="n">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
         <v>6674</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>8274</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>9074</v>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" t="n">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77">
         <v>6675</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>8275</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>9075</v>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" t="n">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78">
         <v>6676</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>8276</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>9076</v>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" t="n">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79">
         <v>6677</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>8277</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>9077</v>
       </c>
     </row>
-    <row r="80">
-      <c r="B80" t="n">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80">
         <v>6678</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>8278</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>9078</v>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" t="n">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
         <v>6679</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>8279</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>9079</v>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" t="n">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
         <v>6680</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>8280</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>9080</v>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" t="n">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
         <v>6681</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>8281</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>9081</v>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" t="n">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
         <v>6682</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>8282</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>9082</v>
       </c>
     </row>
-    <row r="85">
-      <c r="B85" t="n">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
         <v>6683</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>8283</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>9083</v>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" t="n">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86">
         <v>6684</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>8284</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>9084</v>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" t="n">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87">
         <v>6685</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>8285</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>9085</v>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" t="n">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88">
         <v>6686</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>8286</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>9086</v>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" t="n">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89">
         <v>6687</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>8287</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>9087</v>
       </c>
     </row>
-    <row r="90">
-      <c r="B90" t="n">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90">
         <v>6688</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>8288</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>9088</v>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" t="n">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91">
         <v>6689</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>8289</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>9089</v>
       </c>
     </row>
-    <row r="92">
-      <c r="B92" t="n">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92">
         <v>6690</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>8290</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>9090</v>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" t="n">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93">
         <v>6691</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>8291</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>9091</v>
       </c>
     </row>
-    <row r="94">
-      <c r="B94" t="n">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94">
         <v>6692</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>8292</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>9092</v>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" t="n">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95">
         <v>6693</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>8293</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>9093</v>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" t="n">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96">
         <v>6694</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>8294</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>9094</v>
       </c>
     </row>
-    <row r="97">
-      <c r="B97" t="n">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97">
         <v>6695</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>8295</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>9095</v>
       </c>
     </row>
-    <row r="98">
-      <c r="B98" t="n">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98">
         <v>6696</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>8296</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>9096</v>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" t="n">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99">
         <v>6697</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>8297</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>9097</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Server configuration.xlsx
+++ b/Server configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\remote connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DFB99A-DCB0-41BB-9301-4F1F906E564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ED80F1-5239-4603-BAB0-E560B261DD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>名字</t>
   </si>
@@ -40,6 +40,9 @@
     <t>image id</t>
   </si>
   <si>
+    <t>container id</t>
+  </si>
+  <si>
     <t>用途</t>
   </si>
   <si>
@@ -79,32 +82,45 @@
     <t>chen_pedit</t>
   </si>
   <si>
+    <t>prompt</t>
+  </si>
+  <si>
     <t>730572d0c0dd</t>
   </si>
   <si>
-    <t>prompt-prompt</t>
+    <t>f7b7e885133db062</t>
+  </si>
+  <si>
+    <t>diffedit</t>
+  </si>
+  <si>
+    <t>docker run -dit --gpus all --name chen_pedit -p 6603:6006 -p 8203:22 -p 9003:8888 -v ~/ws4/prompt:/workspace 730572d0c0dd</t>
+  </si>
+  <si>
+    <t>chen_faceg</t>
+  </si>
+  <si>
+    <t>faceg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 730572d0c0dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">face generate </t>
   </si>
   <si>
     <t>chen_</t>
   </si>
   <si>
-    <t>prompt</t>
+    <t>docker run -dit --gpus all --name chen_faceg -p 6604:6006 -p 8204:22 -p 9004:8888 -v ~/ws4/faceg:/workspace  730572d0c0dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker run -dit --gpus all --name chen_pedit -p 6603:6006 -p 8203:22 -p 9003:8888 -v ~/ws4/prompt:/workspace 730572d0c0dd</t>
+    <t>docker exec -it    f7b7e885133db062  /bin/bash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>container id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7b7e885133db062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker exec -it    f7b7e885133db062  /bin/bash</t>
+    <t>docker exec -it    ed2516f24c  /bin/bash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +449,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,7 +461,7 @@
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="45.25" customWidth="1"/>
+    <col min="9" max="9" width="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -468,18 +484,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>6600</v>
@@ -491,21 +507,21 @@
         <v>9000</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6601</v>
@@ -517,15 +533,15 @@
         <v>9001</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>6602</v>
@@ -537,12 +553,12 @@
         <v>9002</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>6603</v>
@@ -554,27 +570,27 @@
         <v>9003</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>6604</v>
@@ -585,10 +601,25 @@
       <c r="D6">
         <v>9004</v>
       </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>6605</v>
@@ -602,7 +633,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>6606</v>
@@ -616,7 +647,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>6607</v>
@@ -630,7 +661,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>6608</v>
@@ -644,7 +675,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>6609</v>
@@ -658,7 +689,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>6610</v>
@@ -672,7 +703,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>6611</v>
@@ -686,7 +717,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>6612</v>
@@ -700,7 +731,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>6613</v>
@@ -714,7 +745,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>6614</v>
@@ -728,7 +759,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>6615</v>
@@ -742,7 +773,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>6616</v>
@@ -756,7 +787,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>6617</v>
@@ -770,7 +801,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>6618</v>
@@ -784,7 +815,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>6619</v>
@@ -798,7 +829,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>6620</v>
@@ -812,7 +843,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>6621</v>
@@ -826,7 +857,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>6622</v>
@@ -840,7 +871,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>6623</v>
@@ -854,7 +885,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>6624</v>
@@ -868,7 +899,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>6625</v>
@@ -882,7 +913,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>6626</v>
@@ -896,7 +927,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>6627</v>
@@ -910,7 +941,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>6628</v>
